--- a/DATA_goal/Junction_Flooding_390.xlsx
+++ b/DATA_goal/Junction_Flooding_390.xlsx
@@ -655,103 +655,103 @@
         <v>44782.13194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44782.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.23</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.66</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.99</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.8</v>
+        <v>38.02</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.27</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.66</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44782.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.96</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.17</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.77</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.64</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44782.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.26</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="L5" s="4" t="n">
+      <c r="S5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>21.09</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_390.xlsx
+++ b/DATA_goal/Junction_Flooding_390.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.13194444445</v>
+        <v>45071.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.13888888889</v>
+        <v>45071.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.25</v>
+        <v>11.856</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.59</v>
+        <v>8.467000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.62</v>
+        <v>1.608</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.5</v>
+        <v>26.068</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.23</v>
+        <v>20.377</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.97</v>
+        <v>9.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.66</v>
+        <v>35.568</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.11</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.83</v>
+        <v>6.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.62</v>
+        <v>8.929</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.34</v>
+        <v>10.395</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4</v>
+        <v>11.155</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>9.398999999999999</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>13.144</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>8.301</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.343</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.88</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.11</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>38.02</v>
+        <v>135.739</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.27</v>
+        <v>26.303</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.99</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.28</v>
+        <v>17.252</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.58</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.31</v>
+        <v>1.822</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.56</v>
+        <v>17.744</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.3</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.34</v>
+        <v>6.986</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.7</v>
+        <v>8.227</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.51</v>
+        <v>10.843</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.66</v>
+        <v>32.754</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.32</v>
+        <v>4.704</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.08</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.14583333334</v>
+        <v>45071.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.14</v>
+        <v>20.533</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.96</v>
+        <v>15.183</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.442</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.75</v>
+        <v>44.922</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.4</v>
+        <v>36.329</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.25</v>
+        <v>16.079</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.99</v>
+        <v>61.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.17</v>
+        <v>25.014</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.44</v>
+        <v>11.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.01</v>
+        <v>16.2</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>17.996</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>19.169</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>5.193</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>16.166</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>22.917</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>13.767</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>238.75</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>45.175</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>14.922</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>30.214</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>15.825</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>2.51</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.25</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>4.16</v>
+        <v>30.129</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.77</v>
+        <v>13.181</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.77</v>
+        <v>11.751</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.64</v>
+        <v>13.824</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.64</v>
+        <v>18.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>55.657</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.36</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.15277777778</v>
+        <v>45071.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.59</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.65</v>
+        <v>6.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.28</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.85</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.48</v>
+        <v>16.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.88</v>
+        <v>7.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.86</v>
+        <v>32.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.69</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.22</v>
+        <v>5.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.69</v>
+        <v>7.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.09</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.41</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.58</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.48</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.05</v>
+        <v>10.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.23</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.09</v>
+        <v>107.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.26</v>
+        <v>21.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.86</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.42</v>
+        <v>14.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.14</v>
+        <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.21</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.56</v>
+        <v>15.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.49</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.48</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.12</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.2</v>
+        <v>8.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.21</v>
+        <v>30.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.84</v>
+        <v>3.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.15971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.59</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_390.xlsx
+++ b/DATA_goal/Junction_Flooding_390.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45071.50694444445</v>
+        <v>44782.13194444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>12.77</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.425000000000001</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.488</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>27.776</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>20.765</v>
+        <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>9.82</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>29.191</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>15.707</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.218</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.112</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>10.928</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>11.76</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.255</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.151</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>13.871</v>
+        <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.122999999999999</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.77</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.592</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>147.125</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>28.067</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.004</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.226000000000001</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.728</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>15.858</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.276</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.652</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.069000000000001</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.378</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.869</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>26.432</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>4.957</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>11.713</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45071.51388888889</v>
+        <v>44782.13888888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.856</v>
+        <v>4.251</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.467000000000001</v>
+        <v>2.588</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.608</v>
+        <v>0.615</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.068</v>
+        <v>7.501</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.377</v>
+        <v>7.228</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.208</v>
+        <v>2.972</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>35.568</v>
+        <v>9.662000000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.543</v>
+        <v>4.111</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.178</v>
+        <v>1.834</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.929</v>
+        <v>2.623</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.395</v>
+        <v>3.344</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.155</v>
+        <v>3.997</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.02</v>
+        <v>0.881</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>2.282</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.144</v>
+        <v>4.993</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.301</v>
+        <v>1.837</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.343</v>
+        <v>0.437</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.111</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.739</v>
+        <v>38.016</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.303</v>
+        <v>8.272</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.676</v>
+        <v>2.989</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.252</v>
+        <v>5.283</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.962999999999999</v>
+        <v>3.581</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.822</v>
+        <v>0.311</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.744</v>
+        <v>4.557</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.663</v>
+        <v>2.302</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.986</v>
+        <v>2.345</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.227</v>
+        <v>3.702</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.843</v>
+        <v>3.509</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.165</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>32.754</v>
+        <v>8.664</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.704</v>
+        <v>1.318</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.847</v>
+        <v>3.077</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45071.52083333334</v>
+        <v>44782.14583333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.533</v>
+        <v>3.135</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.183</v>
+        <v>1.964</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.442</v>
+        <v>0.38</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.922</v>
+        <v>5.747</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>36.329</v>
+        <v>5.402</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.079</v>
+        <v>2.246</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>61.097</v>
+        <v>8.987</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.014</v>
+        <v>3.172</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.01</v>
+        <v>1.44</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.2</v>
+        <v>2.006</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.996</v>
+        <v>2.512</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.169</v>
+        <v>2.931</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.193</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.166</v>
+        <v>1.744</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.917</v>
+        <v>3.707</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.767</v>
+        <v>1.43</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.998</v>
+        <v>0.325</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.9350000000000001</v>
+        <v>0.082</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>238.75</v>
+        <v>26.751</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>45.175</v>
+        <v>6.308</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.922</v>
+        <v>2.242</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.214</v>
+        <v>4.088</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.825</v>
+        <v>2.62</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.51</v>
+        <v>0.246</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.129</v>
+        <v>4.16</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.181</v>
+        <v>1.771</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.751</v>
+        <v>1.774</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.824</v>
+        <v>2.635</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.87</v>
+        <v>2.64</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.733</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>55.657</v>
+        <v>8.276999999999999</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.332000000000001</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.656</v>
+        <v>2.357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45071.52777777778</v>
+        <v>44782.15277777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.5</v>
+        <v>2.585</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.98</v>
+        <v>1.651</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.279</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.9</v>
+        <v>4.85</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>16.65</v>
+        <v>4.485</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.42</v>
+        <v>1.878</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>32.82</v>
+        <v>7.858</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.63</v>
+        <v>2.687</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.08</v>
+        <v>1.223</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.36</v>
+        <v>1.694</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>2.095</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>2.41</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>0.581</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>1.48</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.63</v>
+        <v>3.045</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.52</v>
+        <v>1.228</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.261</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.068</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.14</v>
+        <v>21.094</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.17</v>
+        <v>5.259</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>1.863</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.05</v>
+        <v>3.424</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>7.31</v>
+        <v>2.135</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.28</v>
+        <v>0.213</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>15.56</v>
+        <v>3.564</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>1.494</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.53</v>
+        <v>1.476</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.49</v>
+        <v>2.12</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.76</v>
+        <v>2.202</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>30.16</v>
+        <v>7.213</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.82</v>
+        <v>0.844</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44782.15971064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_390.xlsx
+++ b/DATA_goal/Junction_Flooding_390.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44782.13194444445</v>
+        <v>45071.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.411</v>
+        <v>12.77</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.834</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.687</v>
+        <v>3.488</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>27.776</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>20.765</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.421</v>
+        <v>9.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.343</v>
+        <v>29.191</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.587</v>
+        <v>15.707</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.088</v>
+        <v>6.218</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.625</v>
+        <v>9.112</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.867</v>
+        <v>10.928</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.386</v>
+        <v>11.76</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>3.255</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.262</v>
+        <v>10.151</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>13.871</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.896</v>
+        <v>9.122999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.601</v>
+        <v>2.77</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.104</v>
+        <v>1.592</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.507</v>
+        <v>147.125</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.768</v>
+        <v>28.067</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.777</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.652</v>
+        <v>18.004</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.949</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.176</v>
+        <v>2.728</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.915</v>
+        <v>15.858</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.546</v>
+        <v>8.276</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.916</v>
+        <v>7.652</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.093</v>
+        <v>9.069000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.911</v>
+        <v>11.378</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.891</v>
+        <v>2.869</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.078</v>
+        <v>26.432</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.877</v>
+        <v>4.957</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.065</v>
+        <v>11.713</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44782.13888888889</v>
+        <v>45071.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>4.251</v>
+        <v>11.856</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2.588</v>
+        <v>8.467000000000001</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.615</v>
+        <v>1.608</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>7.501</v>
+        <v>26.068</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.228</v>
+        <v>20.377</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.972</v>
+        <v>9.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.662000000000001</v>
+        <v>35.568</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.111</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.834</v>
+        <v>6.178</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>2.623</v>
+        <v>8.929</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>3.344</v>
+        <v>10.395</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.997</v>
+        <v>11.155</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.881</v>
+        <v>3.02</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.282</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.993</v>
+        <v>13.144</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.837</v>
+        <v>8.301</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.437</v>
+        <v>1.343</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.111</v>
+        <v>0.88</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>38.016</v>
+        <v>135.739</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>8.272</v>
+        <v>26.303</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.989</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>5.283</v>
+        <v>17.252</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.581</v>
+        <v>8.962999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.311</v>
+        <v>1.822</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.557</v>
+        <v>17.744</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.302</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.345</v>
+        <v>6.986</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>3.702</v>
+        <v>8.227</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>3.509</v>
+        <v>10.843</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.318</v>
+        <v>1.165</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>8.664</v>
+        <v>32.754</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.318</v>
+        <v>4.704</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.077</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44782.14583333334</v>
+        <v>45071.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>3.135</v>
+        <v>20.533</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.964</v>
+        <v>15.183</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.38</v>
+        <v>1.442</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.747</v>
+        <v>44.922</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.402</v>
+        <v>36.329</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.246</v>
+        <v>16.079</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>8.987</v>
+        <v>61.097</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.172</v>
+        <v>25.014</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.44</v>
+        <v>11.01</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.006</v>
+        <v>16.2</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.512</v>
+        <v>17.996</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.931</v>
+        <v>19.169</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.6860000000000001</v>
+        <v>5.193</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.744</v>
+        <v>16.166</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.707</v>
+        <v>22.917</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.43</v>
+        <v>13.767</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.325</v>
+        <v>0.998</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.082</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.751</v>
+        <v>238.75</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.308</v>
+        <v>45.175</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.242</v>
+        <v>14.922</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.088</v>
+        <v>30.214</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.62</v>
+        <v>15.825</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.246</v>
+        <v>2.51</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>4.16</v>
+        <v>30.129</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.771</v>
+        <v>13.181</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.774</v>
+        <v>11.751</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.635</v>
+        <v>13.824</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.64</v>
+        <v>18.87</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.793</v>
+        <v>0.733</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>8.276999999999999</v>
+        <v>55.657</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.357</v>
+        <v>18.656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44782.15277777778</v>
+        <v>45071.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.585</v>
+        <v>9.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.651</v>
+        <v>6.98</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.279</v>
+        <v>0.87</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.85</v>
+        <v>20.9</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.485</v>
+        <v>16.65</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.878</v>
+        <v>7.42</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>7.858</v>
+        <v>32.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.687</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.223</v>
+        <v>5.08</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.694</v>
+        <v>7.36</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.095</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.41</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.581</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.48</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.045</v>
+        <v>10.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.228</v>
+        <v>6.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.261</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.068</v>
+        <v>0.52</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.094</v>
+        <v>107.14</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.259</v>
+        <v>21.17</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.863</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.424</v>
+        <v>14.05</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.135</v>
+        <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.213</v>
+        <v>1.28</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>3.564</v>
+        <v>15.56</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.494</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.476</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.12</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.202</v>
+        <v>8.76</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>7.213</v>
+        <v>30.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.844</v>
+        <v>3.82</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.99</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44782.15971064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>15.41</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>1.59</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
